--- a/code/BlueHr/BlueHrWeb/Template/考勤记录导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/考勤记录导入文件模板.xlsx
@@ -40,19 +40,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -391,15 +398,15 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +427,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -431,8 +439,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -443,8 +452,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>